--- a/Portfolio_Management.xlsx
+++ b/Portfolio_Management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\Hackethalon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hackathon\Grouo2_Hackthenon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04576318-3E2F-4DF8-957F-844CAAB95C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB3714-207C-4985-8A63-438A145A5853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>User Story :- 1</t>
   </si>
@@ -435,6 +435,21 @@
 AUDIT_ACTION</t>
     </r>
   </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Bipin</t>
+  </si>
+  <si>
+    <t>Dinesh</t>
+  </si>
+  <si>
+    <t>Karthik</t>
+  </si>
+  <si>
+    <t>Pramod</t>
+  </si>
 </sst>
 </file>
 
@@ -653,54 +668,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -718,9 +688,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:H13"/>
     </sheetView>
   </sheetViews>
@@ -1017,119 +1028,119 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="15"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C5:H6"/>
     <mergeCell ref="C7:H8"/>
     <mergeCell ref="C9:H13"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1139,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD669C43-3D3A-4F72-ACFD-B42E77C031E2}">
   <dimension ref="C3:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,32 +1178,35 @@
       </c>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="9" t="s">
         <v>63</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>8</v>
@@ -1209,7 +1223,7 @@
       <c r="R5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1218,38 +1232,39 @@
         <v>1</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="5" t="s">
         <v>65</v>
       </c>
+      <c r="L6" s="1"/>
       <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="3" t="s">
         <v>69</v>
       </c>
       <c r="S6" s="1"/>
@@ -1261,31 +1276,34 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="5" t="s">
         <v>67</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="P7" s="1"/>
@@ -1302,28 +1320,32 @@
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="N8" s="1">
         <v>3</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="1"/>
@@ -1338,23 +1360,27 @@
       <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="N9" s="1">
         <v>4</v>
@@ -1378,21 +1404,25 @@
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="N10" s="1">
         <v>5</v>
@@ -1414,7 +1444,7 @@
       <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1423,12 +1453,16 @@
       <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="3" t="s">
         <v>55</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="N11" s="1">
         <v>6</v>
@@ -1451,9 +1485,11 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="18"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="N12" s="1">
         <v>7</v>
       </c>
@@ -1475,9 +1511,11 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="N13" s="1">
         <v>8</v>
       </c>
@@ -1499,9 +1537,11 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="18"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="N14" s="1">
         <v>9</v>
       </c>
@@ -1511,11 +1551,11 @@
       <c r="P14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q14" s="3" t="s">
         <v>60</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1525,9 +1565,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="18"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1541,9 +1583,11 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="18"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1557,9 +1601,11 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="18"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1573,9 +1619,11 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="18"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1589,9 +1637,11 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1605,9 +1655,11 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="18"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1621,9 +1673,11 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="18"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1637,9 +1691,11 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="18"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>

--- a/Portfolio_Management.xlsx
+++ b/Portfolio_Management.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hackathon\Grouo2_Hackthenon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB3714-207C-4985-8A63-438A145A5853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C42A32-8935-4C98-B70C-3A3A2D2F1024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>User Story :- 1</t>
   </si>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t>Module 3</t>
-  </si>
-  <si>
-    <t>200, Json
-400,  [Invalid Order Ref No,Invalid Security Name
-,Invalid Transaction Type,Invalid From Date or To
-Date]</t>
   </si>
   <si>
     <t>Fields</t>
@@ -382,34 +376,6 @@
   <si>
     <r>
       <t xml:space="preserve">ORDER_DETAIL
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PORTFOLIO_DETAILS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- SECURITY_DETAIL
-AUDIT_ACTION</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ORDER_DETAIL
 </t>
     </r>
     <r>
@@ -449,6 +415,56 @@
   </si>
   <si>
     <t>Pramod</t>
+  </si>
+  <si>
+    <t>200, Json
+400,  [Invalid PortFolio Ref No,Invalid Security Name
+,Invalid Transaction Type,Invalid From Date or To
+Date]</t>
+  </si>
+  <si>
+    <t>User Should get Portfolio Summary</t>
+  </si>
+  <si>
+    <t>1.Portfolio Summary is available
+2.Portfolio summary is not Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Portfolio Number is provided 
+2. Portfolio Number is Provided </t>
+  </si>
+  <si>
+    <t>1.Return the Portfolio Summary 
+2. Should return error message .</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ORDER_DETAIL
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PORTFOLIO_DETAILS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ SECURITY_DETAIL
+AUDIT_ACTION
+ACCOUNT_DETAIL</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -688,6 +704,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,40 +723,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,7 +1032,7 @@
   <dimension ref="B3:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:H13"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,108 +1044,116 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
+      <c r="C3" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
+      <c r="C5" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="C7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="C9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1150,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD669C43-3D3A-4F72-ACFD-B42E77C031E2}">
   <dimension ref="C3:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1197,16 +1221,16 @@
         <v>19</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>8</v>
@@ -1224,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="3:19" ht="72" x14ac:dyDescent="0.3">
@@ -1239,37 +1263,37 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1"/>
       <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="3:19" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:19" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1283,32 +1307,32 @@
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1327,26 +1351,26 @@
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N8" s="1">
         <v>3</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1358,41 +1382,41 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N9" s="1">
         <v>4</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -1405,33 +1429,33 @@
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N10" s="1">
         <v>5</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1442,39 +1466,39 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N11" s="1">
         <v>6</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -1494,13 +1518,13 @@
         <v>7</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -1520,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1546,17 +1570,17 @@
         <v>9</v>
       </c>
       <c r="O14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="Q14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.3">
